--- a/Draft/url.xlsx
+++ b/Draft/url.xlsx
@@ -27,9 +27,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>link</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/viettan/posts/926081452895196?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chantroimoimedia/posts/903821068439059?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chantroimoimedia/posts/903153778505788?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chantroimoimedia/posts/902629631891536?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chantroimoimedia/posts/902511645236668?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chantroimoimedia/posts/902438565243976?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chantroimoimedia/posts/902270611927438?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chantroimoimedia/posts/902213735266459?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chantroimoimedia/posts/902185381935961?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/viettan/posts/926752122828129?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/viettan/posts/926457522857589?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/viettan/posts/926382092865132?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/viettan/posts/926308382872503?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/viettan/posts/926251742878167?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/viettan/posts/926178166218858?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/viettan/posts/926045759565432?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/viettan/posts/925408646295810?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/viettan/posts/925780072925334?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/viettan/posts/926976216139053?ref=embed_post</t>
   </si>
 </sst>
 </file>
@@ -53,15 +110,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,12 +572,12 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -645,18 +702,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,13 +1240,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD60"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="16384" width="8.88888888888889" style="1"/>
   </cols>
@@ -1206,59 +1256,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:1">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:1">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:1">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:1">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:1">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:1">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:1">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:1">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:1">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:1">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:1">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Draft/url.xlsx
+++ b/Draft/url.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="12671" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,66 +27,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>https://www.facebook.com/viettan/posts/926081452895196?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/chantroimoimedia/posts/903821068439059?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/chantroimoimedia/posts/903153778505788?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/chantroimoimedia/posts/902629631891536?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/chantroimoimedia/posts/902511645236668?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/chantroimoimedia/posts/902438565243976?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/chantroimoimedia/posts/902270611927438?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/chantroimoimedia/posts/902213735266459?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/chantroimoimedia/posts/902185381935961?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/viettan/posts/926752122828129?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/viettan/posts/926457522857589?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/viettan/posts/926382092865132?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/viettan/posts/926308382872503?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/viettan/posts/926251742878167?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/viettan/posts/926178166218858?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/viettan/posts/926045759565432?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/viettan/posts/925408646295810?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/viettan/posts/925780072925334?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/viettan/posts/926976216139053?ref=embed_post</t>
+    <t>https://www.facebook.com/vtcnewsvn/posts/934510678704480?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vtcnewsvn/posts/934470095375205?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vtcnewsvn/posts/934460325376182?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vtcnewsvn/posts/934390315383183?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vtcnewsvn/posts/934126468742901?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vtcnewsvn/posts/934093528746195?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vtcnewsvn/posts/933955645426650?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vtcnewsvn/posts/934001565422058?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vtcnewsvn/posts/933935002095381?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vtcnewsvn/posts/933872232101658?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vtcnewsvn/posts/933450592143822?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vtcnewsvn/posts/933385388817009?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vtcnewsvn/posts/933258395496375?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vtcnewsvn/posts/932747585547456?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vtcnewsvn/posts/932703035551911?ref=embed_post</t>
   </si>
 </sst>
 </file>
@@ -110,15 +98,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,12 +560,12 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,11 +690,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,7 +1233,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1277,7 +1267,7 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1331,30 +1321,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Draft/url.xlsx
+++ b/Draft/url.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12671" windowHeight="9000"/>
+    <workbookView windowWidth="10668" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,54 +27,198 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>https://www.facebook.com/vtcnewsvn/posts/934510678704480?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/vtcnewsvn/posts/934470095375205?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/vtcnewsvn/posts/934460325376182?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/vtcnewsvn/posts/934390315383183?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/vtcnewsvn/posts/934126468742901?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/vtcnewsvn/posts/934093528746195?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/vtcnewsvn/posts/933955645426650?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/vtcnewsvn/posts/934001565422058?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/vtcnewsvn/posts/933935002095381?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/vtcnewsvn/posts/933872232101658?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/vtcnewsvn/posts/933450592143822?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/vtcnewsvn/posts/933385388817009?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/vtcnewsvn/posts/933258395496375?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/vtcnewsvn/posts/932747585547456?ref=embed_post</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/vtcnewsvn/posts/932703035551911?ref=embed_post</t>
+    <t>https://www.facebook.com/congdongvnexpress/posts/899459708882708?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/899367455558600?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/899272168901462?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/899200088908670?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/899184368910242?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/899123735582972?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/899061125589233?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/899054682256544?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/899016092260403?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/899000572261955?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898961368932542?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898923745602971?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898913878937291?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898900665605279?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898862848942394?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898599368968742?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898808495614496?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898564672305545?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898482272313785?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898474662314546?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898472682314744?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898453172316695?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898430045652341?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898387572323255?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898370662324946?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898365232325489?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898337255661620?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898325312329481?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898201115675234?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898210292340983?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/898148449013834?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/897942109034468?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/897835842378428?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/897774829051196?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/897781715717174?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/897753055720040?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/897736879054991?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/897662795729066?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/897539849074694?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/897225289106150?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/897165679112111?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/897074259121253?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/896991495796196?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/896947705800575?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/896941309134548?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/896883839140295?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/896530139175665?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/896509692511043?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/896523515842994?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/896463639182315?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/896452339183445?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/896234275871918?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/895902845905061?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/895967109231968?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/895566025938743?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/895539295941416?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/895000689328610?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/894880162673996?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/894861879342491?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/894669119361767?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/894629792699033?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/894487949379884?ref=embed_post</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/congdongvnexpress/posts/894376336057712?ref=embed_post</t>
   </si>
 </sst>
 </file>
@@ -1230,10 +1374,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1321,8 +1465,245 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
